--- a/sharkpay接口文档.xlsx
+++ b/sharkpay接口文档.xlsx
@@ -7483,7 +7483,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7499,12 +7499,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8044,7 +8038,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8068,16 +8062,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -8086,89 +8080,89 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8232,25 +8226,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -8304,7 +8295,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1">
@@ -9073,8 +9064,8 @@
   <sheetPr/>
   <dimension ref="A1:N88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -9085,10 +9076,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
     </row>
@@ -9104,25 +9095,25 @@
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:9">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="45"/>
+      <c r="D4" s="44"/>
       <c r="I4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="45"/>
+      <c r="D5" s="44"/>
       <c r="I5" s="3"/>
       <c r="J5" s="7" t="s">
         <v>10</v>
@@ -9133,14 +9124,14 @@
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="I6" s="27" t="s">
+      <c r="D6" s="44"/>
+      <c r="I6" s="26" t="s">
         <v>14</v>
       </c>
       <c r="J6" s="3" t="s">
@@ -9157,14 +9148,14 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="I7" s="27"/>
+      <c r="D7" s="44"/>
+      <c r="I7" s="26"/>
       <c r="J7" s="3" t="s">
         <v>21</v>
       </c>
@@ -9179,14 +9170,14 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="I8" s="27"/>
+      <c r="D8" s="44"/>
+      <c r="I8" s="26"/>
       <c r="J8" s="8" t="s">
         <v>27</v>
       </c>
@@ -9201,13 +9192,13 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="45" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="27"/>
+      <c r="I9" s="26"/>
       <c r="J9" s="3" t="s">
         <v>33</v>
       </c>
@@ -9222,13 +9213,13 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="42" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="27"/>
+      <c r="I10" s="26"/>
       <c r="J10" s="3" t="s">
         <v>37</v>
       </c>
@@ -9243,13 +9234,13 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="42" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="27"/>
+      <c r="I11" s="26"/>
       <c r="J11" s="3" t="s">
         <v>42</v>
       </c>
@@ -9264,13 +9255,13 @@
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="45" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="24" t="s">
         <v>48</v>
       </c>
       <c r="J12" s="8" t="s">
@@ -9287,13 +9278,13 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="42" t="s">
         <v>53</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="25"/>
+      <c r="I13" s="24"/>
       <c r="J13" s="8" t="s">
         <v>55</v>
       </c>
@@ -9308,13 +9299,13 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="45" t="s">
         <v>58</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="25"/>
+      <c r="I14" s="24"/>
       <c r="J14" s="3" t="s">
         <v>60</v>
       </c>
@@ -9329,13 +9320,13 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="45" t="s">
         <v>63</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I15" s="25"/>
+      <c r="I15" s="24"/>
       <c r="J15" s="3" t="s">
         <v>65</v>
       </c>
@@ -9350,13 +9341,13 @@
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="45" t="s">
         <v>68</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="I16" s="26" t="s">
+      <c r="I16" s="25" t="s">
         <v>70</v>
       </c>
       <c r="J16" s="3" t="s">
@@ -9373,13 +9364,13 @@
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="45" t="s">
         <v>74</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="I17" s="26"/>
+      <c r="I17" s="25"/>
       <c r="J17" s="8" t="s">
         <v>76</v>
       </c>
@@ -9394,13 +9385,13 @@
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="45" t="s">
         <v>80</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="I18" s="26"/>
+      <c r="I18" s="25"/>
       <c r="J18" s="3" t="s">
         <v>82</v>
       </c>
@@ -9415,7 +9406,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="45" t="s">
         <v>86</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -9423,7 +9414,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="45" t="s">
         <v>88</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -9431,124 +9422,127 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="45"/>
+      <c r="D21" s="44"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="45"/>
+      <c r="D22" s="44"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="45"/>
+      <c r="D23" s="44"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="D24" s="45"/>
+      <c r="D24" s="44"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="45"/>
+      <c r="D25" s="44"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="45" t="s">
         <v>100</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D26" s="45"/>
+      <c r="D26" s="44"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="49" t="s">
         <v>102</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D27" s="45"/>
+      <c r="D27" s="44"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="45" t="s">
         <v>104</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D28" s="45"/>
+      <c r="D28" s="44"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="45" t="s">
         <v>106</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>107</v>
       </c>
+      <c r="D29" s="44"/>
       <c r="F29" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="46" t="s">
+      <c r="A30" s="45" t="s">
         <v>109</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D30" s="45"/>
+      <c r="D30" s="44"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="45" t="s">
         <v>111</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D31" s="45"/>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="46" t="s">
+      <c r="D31" s="44"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="45" t="s">
         <v>113</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="46" t="s">
+      <c r="D32" s="44"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="45" t="s">
         <v>115</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>116</v>
       </c>
+      <c r="D33" s="44"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="42" t="s">
         <v>117</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -9556,7 +9550,7 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="45" t="s">
         <v>119</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -9564,7 +9558,7 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="50" t="s">
+      <c r="A36" s="49" t="s">
         <v>121</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -9572,7 +9566,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="46" t="s">
+      <c r="A37" s="45" t="s">
         <v>123</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -9580,7 +9574,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="46" t="s">
+      <c r="A38" s="45" t="s">
         <v>125</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -9588,7 +9582,7 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="45" t="s">
         <v>127</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -9596,7 +9590,7 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="45" t="s">
         <v>129</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -9604,7 +9598,7 @@
       </c>
     </row>
     <row r="41" customFormat="1" spans="1:2">
-      <c r="A41" s="46" t="s">
+      <c r="A41" s="45" t="s">
         <v>131</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -9612,7 +9606,7 @@
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="46" t="s">
+      <c r="A42" s="45" t="s">
         <v>133</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -9620,7 +9614,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="43" t="s">
+      <c r="A43" s="42" t="s">
         <v>135</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -9628,7 +9622,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="46" t="s">
+      <c r="A44" s="45" t="s">
         <v>137</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -9636,7 +9630,7 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="46" t="s">
+      <c r="A45" s="45" t="s">
         <v>139</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -9644,7 +9638,7 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="42" t="s">
         <v>141</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -9652,7 +9646,7 @@
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="46" t="s">
+      <c r="A47" s="45" t="s">
         <v>143</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -9660,7 +9654,7 @@
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="46" t="s">
+      <c r="A48" s="45" t="s">
         <v>145</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -9668,7 +9662,7 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="46" t="s">
+      <c r="A49" s="45" t="s">
         <v>147</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -9676,7 +9670,7 @@
       </c>
     </row>
     <row r="50" customFormat="1" spans="1:2">
-      <c r="A50" s="46" t="s">
+      <c r="A50" s="45" t="s">
         <v>149</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -9684,7 +9678,7 @@
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="46" t="s">
+      <c r="A51" s="45" t="s">
         <v>151</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -9692,7 +9686,7 @@
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="43" t="s">
+      <c r="A52" s="42" t="s">
         <v>153</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -9736,7 +9730,7 @@
       <c r="A63" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B63" s="51" t="s">
+      <c r="B63" s="50" t="s">
         <v>157</v>
       </c>
       <c r="F63" s="11" t="s">
@@ -9753,7 +9747,7 @@
       <c r="G86" s="11"/>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="52" t="s">
+      <c r="A87" s="51" t="s">
         <v>161</v>
       </c>
       <c r="B87" t="s">
@@ -13300,7 +13294,7 @@
       <c r="A5" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="K5" s="27" t="s">
+      <c r="K5" s="26" t="s">
         <v>14</v>
       </c>
       <c r="L5" s="3" t="s">
@@ -13326,7 +13320,7 @@
       <c r="E6" t="s">
         <v>214</v>
       </c>
-      <c r="K6" s="27"/>
+      <c r="K6" s="26"/>
       <c r="L6" s="3" t="s">
         <v>21</v>
       </c>
@@ -13341,7 +13335,7 @@
       <c r="A7" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="K7" s="27"/>
+      <c r="K7" s="26"/>
       <c r="L7" s="8" t="s">
         <v>27</v>
       </c>
@@ -13354,7 +13348,7 @@
     </row>
     <row r="8" spans="2:14">
       <c r="B8" s="4"/>
-      <c r="K8" s="27"/>
+      <c r="K8" s="26"/>
       <c r="L8" s="3" t="s">
         <v>33</v>
       </c>
@@ -13369,7 +13363,7 @@
       <c r="A9" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="K9" s="27"/>
+      <c r="K9" s="26"/>
       <c r="L9" s="3" t="s">
         <v>37</v>
       </c>
@@ -13390,7 +13384,7 @@
       <c r="D10" t="s">
         <v>176</v>
       </c>
-      <c r="K10" s="27"/>
+      <c r="K10" s="26"/>
       <c r="L10" s="3" t="s">
         <v>42</v>
       </c>
@@ -13411,7 +13405,7 @@
       <c r="D11" t="s">
         <v>178</v>
       </c>
-      <c r="K11" s="25" t="s">
+      <c r="K11" s="24" t="s">
         <v>48</v>
       </c>
       <c r="L11" s="8" t="s">
@@ -13431,7 +13425,7 @@
       <c r="F12" t="s">
         <v>270</v>
       </c>
-      <c r="K12" s="25"/>
+      <c r="K12" s="24"/>
       <c r="L12" s="8" t="s">
         <v>55</v>
       </c>
@@ -13452,7 +13446,7 @@
       <c r="F13" t="s">
         <v>593</v>
       </c>
-      <c r="K13" s="25"/>
+      <c r="K13" s="24"/>
       <c r="L13" s="3" t="s">
         <v>60</v>
       </c>
@@ -13473,7 +13467,7 @@
       <c r="F14" t="s">
         <v>595</v>
       </c>
-      <c r="K14" s="25"/>
+      <c r="K14" s="24"/>
       <c r="L14" s="3" t="s">
         <v>65</v>
       </c>
@@ -13485,17 +13479,17 @@
       </c>
     </row>
     <row r="15" spans="3:14">
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="27" t="s">
         <v>596</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28" t="s">
+      <c r="E15" s="27"/>
+      <c r="F15" s="27" t="s">
         <v>597</v>
       </c>
-      <c r="K15" s="26" t="s">
+      <c r="K15" s="25" t="s">
         <v>70</v>
       </c>
       <c r="L15" s="3" t="s">
@@ -13524,7 +13518,7 @@
       <c r="I16" s="20" t="s">
         <v>599</v>
       </c>
-      <c r="K16" s="26"/>
+      <c r="K16" s="25"/>
       <c r="L16" s="8" t="s">
         <v>76</v>
       </c>
@@ -13545,7 +13539,7 @@
       <c r="F17" t="s">
         <v>480</v>
       </c>
-      <c r="K17" s="26"/>
+      <c r="K17" s="25"/>
       <c r="L17" s="3" t="s">
         <v>82</v>
       </c>
@@ -13602,14 +13596,14 @@
       </c>
     </row>
     <row r="22" spans="3:6">
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28" t="s">
+      <c r="E22" s="27"/>
+      <c r="F22" s="27" t="s">
         <v>602</v>
       </c>
     </row>
@@ -14840,7 +14834,7 @@
       <c r="A7" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L7" s="27" t="s">
+      <c r="L7" s="26" t="s">
         <v>14</v>
       </c>
       <c r="M7" s="3" t="s">
@@ -14866,7 +14860,7 @@
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
-      <c r="L8" s="27"/>
+      <c r="L8" s="26"/>
       <c r="M8" s="3" t="s">
         <v>21</v>
       </c>
@@ -14890,7 +14884,7 @@
       <c r="E9" t="s">
         <v>458</v>
       </c>
-      <c r="L9" s="27"/>
+      <c r="L9" s="26"/>
       <c r="M9" s="8" t="s">
         <v>27</v>
       </c>
@@ -14905,7 +14899,7 @@
       <c r="A10" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="L10" s="27"/>
+      <c r="L10" s="26"/>
       <c r="M10" s="3" t="s">
         <v>33</v>
       </c>
@@ -14926,7 +14920,7 @@
       <c r="D11" t="s">
         <v>221</v>
       </c>
-      <c r="L11" s="27"/>
+      <c r="L11" s="26"/>
       <c r="M11" s="3" t="s">
         <v>37</v>
       </c>
@@ -14944,7 +14938,7 @@
       <c r="C12" t="s">
         <v>222</v>
       </c>
-      <c r="L12" s="27"/>
+      <c r="L12" s="26"/>
       <c r="M12" s="3" t="s">
         <v>42</v>
       </c>
@@ -14962,7 +14956,7 @@
       <c r="F13" t="s">
         <v>92</v>
       </c>
-      <c r="L13" s="25" t="s">
+      <c r="L13" s="24" t="s">
         <v>48</v>
       </c>
       <c r="M13" s="8" t="s">
@@ -14985,7 +14979,7 @@
       <c r="F14" t="s">
         <v>593</v>
       </c>
-      <c r="L14" s="25"/>
+      <c r="L14" s="24"/>
       <c r="M14" s="8" t="s">
         <v>55</v>
       </c>
@@ -15006,7 +15000,7 @@
       <c r="F15" t="s">
         <v>480</v>
       </c>
-      <c r="L15" s="25"/>
+      <c r="L15" s="24"/>
       <c r="M15" s="3" t="s">
         <v>60</v>
       </c>
@@ -15027,7 +15021,7 @@
       <c r="F16" t="s">
         <v>719</v>
       </c>
-      <c r="L16" s="25"/>
+      <c r="L16" s="24"/>
       <c r="M16" s="3" t="s">
         <v>65</v>
       </c>
@@ -15049,7 +15043,7 @@
       <c r="F17" s="20" t="s">
         <v>721</v>
       </c>
-      <c r="L17" s="26" t="s">
+      <c r="L17" s="25" t="s">
         <v>70</v>
       </c>
       <c r="M17" s="3" t="s">
@@ -15072,7 +15066,7 @@
       <c r="F18" t="s">
         <v>724</v>
       </c>
-      <c r="L18" s="26"/>
+      <c r="L18" s="25"/>
       <c r="M18" s="8" t="s">
         <v>76</v>
       </c>
@@ -15093,7 +15087,7 @@
       <c r="F19" t="s">
         <v>725</v>
       </c>
-      <c r="L19" s="26"/>
+      <c r="L19" s="25"/>
       <c r="M19" s="3" t="s">
         <v>82</v>
       </c>
@@ -15570,7 +15564,7 @@
       <c r="A7" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L7" s="27" t="s">
+      <c r="L7" s="26" t="s">
         <v>14</v>
       </c>
       <c r="M7" s="3" t="s">
@@ -15596,7 +15590,7 @@
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
-      <c r="L8" s="27"/>
+      <c r="L8" s="26"/>
       <c r="M8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15623,7 +15617,7 @@
       <c r="H9" t="s">
         <v>755</v>
       </c>
-      <c r="L9" s="27"/>
+      <c r="L9" s="26"/>
       <c r="M9" s="8" t="s">
         <v>27</v>
       </c>
@@ -15638,7 +15632,7 @@
       <c r="A10" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="L10" s="27"/>
+      <c r="L10" s="26"/>
       <c r="M10" s="3" t="s">
         <v>33</v>
       </c>
@@ -15659,7 +15653,7 @@
       <c r="D11" t="s">
         <v>221</v>
       </c>
-      <c r="L11" s="27"/>
+      <c r="L11" s="26"/>
       <c r="M11" s="3" t="s">
         <v>37</v>
       </c>
@@ -15677,7 +15671,7 @@
       <c r="C12" t="s">
         <v>222</v>
       </c>
-      <c r="L12" s="27"/>
+      <c r="L12" s="26"/>
       <c r="M12" s="3" t="s">
         <v>42</v>
       </c>
@@ -15695,7 +15689,7 @@
       <c r="F13" t="s">
         <v>92</v>
       </c>
-      <c r="L13" s="25" t="s">
+      <c r="L13" s="24" t="s">
         <v>48</v>
       </c>
       <c r="M13" s="8" t="s">
@@ -15718,7 +15712,7 @@
       <c r="F14" t="s">
         <v>593</v>
       </c>
-      <c r="L14" s="25"/>
+      <c r="L14" s="24"/>
       <c r="M14" s="8" t="s">
         <v>55</v>
       </c>
@@ -15739,7 +15733,7 @@
       <c r="F15" t="s">
         <v>480</v>
       </c>
-      <c r="L15" s="25"/>
+      <c r="L15" s="24"/>
       <c r="M15" s="3" t="s">
         <v>60</v>
       </c>
@@ -15760,7 +15754,7 @@
       <c r="F16" t="s">
         <v>719</v>
       </c>
-      <c r="L16" s="25"/>
+      <c r="L16" s="24"/>
       <c r="M16" s="3" t="s">
         <v>65</v>
       </c>
@@ -15781,7 +15775,7 @@
       <c r="F17" t="s">
         <v>725</v>
       </c>
-      <c r="L17" s="26" t="s">
+      <c r="L17" s="25" t="s">
         <v>70</v>
       </c>
       <c r="M17" s="3" t="s">
@@ -15807,7 +15801,7 @@
       <c r="G18" t="s">
         <v>730</v>
       </c>
-      <c r="L18" s="26"/>
+      <c r="L18" s="25"/>
       <c r="M18" s="8" t="s">
         <v>76</v>
       </c>
@@ -15828,7 +15822,7 @@
       <c r="F19" t="s">
         <v>757</v>
       </c>
-      <c r="L19" s="26"/>
+      <c r="L19" s="25"/>
       <c r="M19" s="3" t="s">
         <v>82</v>
       </c>
@@ -16272,7 +16266,7 @@
       <c r="E6" t="s">
         <v>214</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="L6" s="21" t="s">
         <v>14</v>
       </c>
       <c r="M6" s="3" t="s">
@@ -16286,7 +16280,7 @@
       <c r="A7" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="L7" s="23"/>
+      <c r="L7" s="22"/>
       <c r="M7" s="3" t="s">
         <v>21</v>
       </c>
@@ -16307,7 +16301,7 @@
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
-      <c r="L8" s="23"/>
+      <c r="L8" s="22"/>
       <c r="M8" s="8" t="s">
         <v>27</v>
       </c>
@@ -16325,7 +16319,7 @@
       <c r="G9" t="s">
         <v>504</v>
       </c>
-      <c r="L9" s="23"/>
+      <c r="L9" s="22"/>
       <c r="M9" s="3" t="s">
         <v>33</v>
       </c>
@@ -16343,7 +16337,7 @@
       <c r="G10" t="s">
         <v>506</v>
       </c>
-      <c r="L10" s="23"/>
+      <c r="L10" s="22"/>
       <c r="M10" s="3" t="s">
         <v>37</v>
       </c>
@@ -16355,7 +16349,7 @@
       <c r="A11" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="L11" s="24"/>
+      <c r="L11" s="23"/>
       <c r="M11" s="3" t="s">
         <v>42</v>
       </c>
@@ -16373,7 +16367,7 @@
       <c r="D12" t="s">
         <v>221</v>
       </c>
-      <c r="L12" s="25" t="s">
+      <c r="L12" s="24" t="s">
         <v>48</v>
       </c>
       <c r="M12" s="8" t="s">
@@ -16390,7 +16384,7 @@
       <c r="C13" t="s">
         <v>222</v>
       </c>
-      <c r="L13" s="25"/>
+      <c r="L13" s="24"/>
       <c r="M13" s="8" t="s">
         <v>55</v>
       </c>
@@ -16405,7 +16399,7 @@
       <c r="F14" t="s">
         <v>98</v>
       </c>
-      <c r="L14" s="25"/>
+      <c r="L14" s="24"/>
       <c r="M14" s="3" t="s">
         <v>60</v>
       </c>
@@ -16424,7 +16418,7 @@
       <c r="F15" s="20" t="s">
         <v>593</v>
       </c>
-      <c r="L15" s="25"/>
+      <c r="L15" s="24"/>
       <c r="M15" s="3" t="s">
         <v>65</v>
       </c>
@@ -16443,7 +16437,7 @@
       <c r="F16" s="20" t="s">
         <v>480</v>
       </c>
-      <c r="L16" s="26" t="s">
+      <c r="L16" s="25" t="s">
         <v>70</v>
       </c>
       <c r="M16" s="3" t="s">
@@ -16463,7 +16457,7 @@
       <c r="F17" t="s">
         <v>780</v>
       </c>
-      <c r="L17" s="26"/>
+      <c r="L17" s="25"/>
       <c r="M17" s="8" t="s">
         <v>76</v>
       </c>
@@ -16481,7 +16475,7 @@
       <c r="F18" t="s">
         <v>782</v>
       </c>
-      <c r="L18" s="26"/>
+      <c r="L18" s="25"/>
       <c r="M18" s="3" t="s">
         <v>82</v>
       </c>
@@ -17454,7 +17448,6 @@
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
-      <c r="H8"/>
       <c r="M8" s="3" t="s">
         <v>15</v>
       </c>
@@ -34068,7 +34061,6 @@
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
-      <c r="H8"/>
       <c r="M8" s="3" t="s">
         <v>15</v>
       </c>
@@ -34446,7 +34438,6 @@
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
-      <c r="H8"/>
       <c r="O8" s="8" t="s">
         <v>27</v>
       </c>
@@ -34544,11 +34535,11 @@
       <c r="C15" s="20" t="s">
         <v>717</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21" t="s">
+      <c r="E15" s="20"/>
+      <c r="F15" s="20" t="s">
         <v>780</v>
       </c>
     </row>
@@ -34559,13 +34550,9 @@
       <c r="D16" t="s">
         <v>715</v>
       </c>
-      <c r="E16"/>
       <c r="F16" t="s">
         <v>1380</v>
       </c>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
       <c r="J16" t="s">
         <v>1381</v>
       </c>
@@ -34577,13 +34564,9 @@
       <c r="D17" t="s">
         <v>715</v>
       </c>
-      <c r="E17"/>
       <c r="F17" t="s">
         <v>1383</v>
       </c>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
       <c r="J17" t="s">
         <v>1381</v>
       </c>
@@ -35342,7 +35325,6 @@
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
-      <c r="H8"/>
       <c r="N8" s="8" t="s">
         <v>27</v>
       </c>
@@ -35377,13 +35359,9 @@
       <c r="B10" t="s">
         <v>505</v>
       </c>
-      <c r="C10"/>
       <c r="D10" t="s">
         <v>220</v>
       </c>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
       <c r="H10" t="s">
         <v>506</v>
       </c>
@@ -35412,14 +35390,6 @@
       <c r="A12" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
       <c r="M12" s="11" t="s">
         <v>871</v>
       </c>
@@ -35482,7 +35452,6 @@
       <c r="D18" t="s">
         <v>171</v>
       </c>
-      <c r="E18"/>
       <c r="F18" t="s">
         <v>780</v>
       </c>
@@ -35494,7 +35463,6 @@
       <c r="D19" t="s">
         <v>220</v>
       </c>
-      <c r="E19"/>
       <c r="F19" t="s">
         <v>1391</v>
       </c>
@@ -35506,7 +35474,6 @@
       <c r="D20" t="s">
         <v>873</v>
       </c>
-      <c r="E20"/>
       <c r="F20" t="s">
         <v>228</v>
       </c>
@@ -36952,7 +36919,6 @@
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
-      <c r="H8"/>
       <c r="N8" s="8" t="s">
         <v>27</v>
       </c>
@@ -37085,7 +37051,6 @@
       <c r="D19" t="s">
         <v>220</v>
       </c>
-      <c r="E19"/>
       <c r="F19" t="s">
         <v>1391</v>
       </c>
@@ -37097,7 +37062,6 @@
       <c r="D20" t="s">
         <v>873</v>
       </c>
-      <c r="E20"/>
       <c r="F20" t="s">
         <v>228</v>
       </c>
@@ -37157,7 +37121,6 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="26" customFormat="1"/>
     <row r="27" customFormat="1" spans="1:1">
       <c r="A27" s="6" t="s">
         <v>182</v>
@@ -39835,7 +39798,7 @@
       </c>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="39" t="s">
         <v>193</v>
       </c>
       <c r="C13" t="s">
@@ -39849,7 +39812,7 @@
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="39" t="s">
         <v>197</v>
       </c>
       <c r="C14" t="s">
@@ -39863,7 +39826,7 @@
       </c>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="39" t="s">
         <v>199</v>
       </c>
       <c r="C15" t="s">
@@ -39880,7 +39843,7 @@
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="39" t="s">
         <v>202</v>
       </c>
       <c r="C16" t="s">
@@ -39894,7 +39857,7 @@
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="39" t="s">
         <v>204</v>
       </c>
       <c r="C17" t="s">
@@ -39908,7 +39871,7 @@
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="39" t="s">
         <v>206</v>
       </c>
       <c r="C18" t="s">
@@ -39991,7 +39954,7 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -40206,7 +40169,7 @@
       <c r="A15" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="N15" s="53" t="s">
+      <c r="N15" s="52" t="s">
         <v>1529</v>
       </c>
       <c r="O15" s="3" t="s">
@@ -40223,7 +40186,7 @@
       <c r="D16" t="s">
         <v>221</v>
       </c>
-      <c r="N16" s="53" t="s">
+      <c r="N16" s="52" t="s">
         <v>1531</v>
       </c>
       <c r="O16" s="3" t="s">
@@ -40237,7 +40200,7 @@
       <c r="C17" t="s">
         <v>222</v>
       </c>
-      <c r="N17" s="53" t="s">
+      <c r="N17" s="52" t="s">
         <v>1533</v>
       </c>
       <c r="O17" s="3" t="s">
@@ -40245,7 +40208,7 @@
       </c>
     </row>
     <row r="18" customFormat="1" spans="14:15">
-      <c r="N18" s="53" t="s">
+      <c r="N18" s="52" t="s">
         <v>1535</v>
       </c>
       <c r="O18" s="3" t="s">
@@ -40253,7 +40216,7 @@
       </c>
     </row>
     <row r="19" customFormat="1" spans="14:15">
-      <c r="N19" s="53" t="s">
+      <c r="N19" s="52" t="s">
         <v>1537</v>
       </c>
       <c r="O19" s="3" t="s">
@@ -40264,7 +40227,7 @@
       <c r="A20" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="N20" s="53" t="s">
+      <c r="N20" s="52" t="s">
         <v>1539</v>
       </c>
       <c r="O20" s="3" t="s">
@@ -40275,7 +40238,7 @@
       <c r="B21" t="s">
         <v>250</v>
       </c>
-      <c r="N21" s="53" t="s">
+      <c r="N21" s="52" t="s">
         <v>1541</v>
       </c>
       <c r="O21" s="3" t="s">
@@ -40286,7 +40249,7 @@
       <c r="B22" t="s">
         <v>251</v>
       </c>
-      <c r="N22" s="53" t="s">
+      <c r="N22" s="52" t="s">
         <v>1543</v>
       </c>
       <c r="O22" s="3" t="s">
@@ -40297,7 +40260,7 @@
       <c r="B23" t="s">
         <v>252</v>
       </c>
-      <c r="N23" s="53" t="s">
+      <c r="N23" s="52" t="s">
         <v>1545</v>
       </c>
       <c r="O23" s="3" t="s">
@@ -40308,7 +40271,7 @@
       <c r="B24" t="s">
         <v>1547</v>
       </c>
-      <c r="N24" s="53" t="s">
+      <c r="N24" s="52" t="s">
         <v>1548</v>
       </c>
       <c r="O24" s="3" t="s">
@@ -40319,7 +40282,7 @@
       <c r="B25" t="s">
         <v>267</v>
       </c>
-      <c r="N25" s="53" t="s">
+      <c r="N25" s="52" t="s">
         <v>1550</v>
       </c>
       <c r="O25" s="3" t="s">
@@ -40559,7 +40522,7 @@
       <c r="A15" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="N15" s="53" t="s">
+      <c r="N15" s="52" t="s">
         <v>1529</v>
       </c>
       <c r="O15" s="3" t="s">
@@ -40576,7 +40539,7 @@
       <c r="D16" t="s">
         <v>221</v>
       </c>
-      <c r="N16" s="53" t="s">
+      <c r="N16" s="52" t="s">
         <v>1531</v>
       </c>
       <c r="O16" s="3" t="s">
@@ -40590,7 +40553,7 @@
       <c r="C17" t="s">
         <v>222</v>
       </c>
-      <c r="N17" s="53" t="s">
+      <c r="N17" s="52" t="s">
         <v>1533</v>
       </c>
       <c r="O17" s="3" t="s">
@@ -40598,7 +40561,7 @@
       </c>
     </row>
     <row r="18" customFormat="1" spans="14:15">
-      <c r="N18" s="53" t="s">
+      <c r="N18" s="52" t="s">
         <v>1535</v>
       </c>
       <c r="O18" s="3" t="s">
@@ -40606,7 +40569,7 @@
       </c>
     </row>
     <row r="19" customFormat="1" spans="14:15">
-      <c r="N19" s="53" t="s">
+      <c r="N19" s="52" t="s">
         <v>1537</v>
       </c>
       <c r="O19" s="3" t="s">
@@ -40617,7 +40580,7 @@
       <c r="A20" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="N20" s="53" t="s">
+      <c r="N20" s="52" t="s">
         <v>1539</v>
       </c>
       <c r="O20" s="3" t="s">
@@ -40628,7 +40591,7 @@
       <c r="B21" t="s">
         <v>250</v>
       </c>
-      <c r="N21" s="53" t="s">
+      <c r="N21" s="52" t="s">
         <v>1541</v>
       </c>
       <c r="O21" s="3" t="s">
@@ -40639,7 +40602,7 @@
       <c r="B22" t="s">
         <v>251</v>
       </c>
-      <c r="N22" s="53" t="s">
+      <c r="N22" s="52" t="s">
         <v>1543</v>
       </c>
       <c r="O22" s="3" t="s">
@@ -40650,7 +40613,7 @@
       <c r="B23" t="s">
         <v>252</v>
       </c>
-      <c r="N23" s="53" t="s">
+      <c r="N23" s="52" t="s">
         <v>1545</v>
       </c>
       <c r="O23" s="3" t="s">
@@ -40661,7 +40624,7 @@
       <c r="B24" t="s">
         <v>1547</v>
       </c>
-      <c r="N24" s="53" t="s">
+      <c r="N24" s="52" t="s">
         <v>1548</v>
       </c>
       <c r="O24" s="3" t="s">
@@ -40672,7 +40635,7 @@
       <c r="B25" t="s">
         <v>267</v>
       </c>
-      <c r="N25" s="53" t="s">
+      <c r="N25" s="52" t="s">
         <v>1550</v>
       </c>
       <c r="O25" s="3" t="s">
@@ -49593,7 +49556,7 @@
       <c r="E12" t="s">
         <v>172</v>
       </c>
-      <c r="N12" s="54" t="s">
+      <c r="N12" s="53" t="s">
         <v>1529</v>
       </c>
       <c r="O12" s="12" t="s">
@@ -49784,7 +49747,7 @@
       </c>
     </row>
     <row r="33" spans="14:16">
-      <c r="N33" s="54" t="s">
+      <c r="N33" s="53" t="s">
         <v>1541</v>
       </c>
       <c r="O33" s="12" t="s">
@@ -49823,7 +49786,7 @@
       </c>
     </row>
     <row r="38" spans="14:16">
-      <c r="N38" s="54" t="s">
+      <c r="N38" s="53" t="s">
         <v>1543</v>
       </c>
       <c r="O38" s="12" t="s">
@@ -49862,7 +49825,7 @@
       </c>
     </row>
     <row r="43" spans="14:16">
-      <c r="N43" s="54" t="s">
+      <c r="N43" s="53" t="s">
         <v>1545</v>
       </c>
       <c r="O43" s="12" t="s">
@@ -50221,7 +50184,7 @@
       <c r="H12" t="s">
         <v>1909</v>
       </c>
-      <c r="N12" s="54" t="s">
+      <c r="N12" s="53" t="s">
         <v>1529</v>
       </c>
       <c r="O12" s="12" t="s">
@@ -50424,7 +50387,7 @@
       </c>
     </row>
     <row r="33" spans="14:16">
-      <c r="N33" s="54" t="s">
+      <c r="N33" s="53" t="s">
         <v>1541</v>
       </c>
       <c r="O33" s="12" t="s">
@@ -50463,7 +50426,7 @@
       </c>
     </row>
     <row r="38" spans="14:16">
-      <c r="N38" s="54" t="s">
+      <c r="N38" s="53" t="s">
         <v>1543</v>
       </c>
       <c r="O38" s="12" t="s">
@@ -50502,7 +50465,7 @@
       </c>
     </row>
     <row r="43" spans="14:16">
-      <c r="N43" s="54" t="s">
+      <c r="N43" s="53" t="s">
         <v>1545</v>
       </c>
       <c r="O43" s="12" t="s">
@@ -57404,7 +57367,7 @@
   <dimension ref="A1:P59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -57604,7 +57567,7 @@
       </c>
     </row>
     <row r="13" customFormat="1" spans="14:16">
-      <c r="N13" s="54" t="s">
+      <c r="N13" s="53" t="s">
         <v>1529</v>
       </c>
       <c r="O13" s="12" t="s">
@@ -57914,7 +57877,7 @@
       </c>
     </row>
     <row r="51" spans="14:16">
-      <c r="N51" s="54" t="s">
+      <c r="N51" s="53" t="s">
         <v>1533</v>
       </c>
       <c r="O51" s="12" t="s">
@@ -58206,7 +58169,7 @@
       <c r="F13" t="s">
         <v>172</v>
       </c>
-      <c r="N13" s="54" t="s">
+      <c r="N13" s="53" t="s">
         <v>1529</v>
       </c>
       <c r="O13" s="12" t="s">
@@ -58516,7 +58479,7 @@
       </c>
     </row>
     <row r="51" spans="14:16">
-      <c r="N51" s="54" t="s">
+      <c r="N51" s="53" t="s">
         <v>1533</v>
       </c>
       <c r="O51" s="12" t="s">
@@ -59712,521 +59675,521 @@
       </c>
     </row>
     <row r="10" ht="15.15" spans="2:6">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="31"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" ht="15.15" spans="2:6">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="31"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" ht="15.15" spans="2:6">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="34"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="35"/>
-      <c r="C13" s="32" t="s">
+      <c r="B13" s="34"/>
+      <c r="C13" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34" t="s">
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="33" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
       <c r="D14" t="s">
         <v>271</v>
       </c>
       <c r="E14" t="s">
         <v>230</v>
       </c>
-      <c r="F14" s="36" t="s">
+      <c r="F14" s="35" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
       <c r="D15" t="s">
         <v>273</v>
       </c>
       <c r="E15" t="s">
         <v>171</v>
       </c>
-      <c r="F15" s="36" t="s">
+      <c r="F15" s="35" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
       <c r="D16" t="s">
         <v>275</v>
       </c>
       <c r="E16" t="s">
         <v>171</v>
       </c>
-      <c r="F16" s="36" t="s">
+      <c r="F16" s="35" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
       <c r="D17" t="s">
         <v>277</v>
       </c>
       <c r="E17" t="s">
         <v>230</v>
       </c>
-      <c r="F17" s="36" t="s">
+      <c r="F17" s="35" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
       <c r="D18" t="s">
         <v>279</v>
       </c>
       <c r="E18" t="s">
         <v>230</v>
       </c>
-      <c r="F18" s="36" t="s">
+      <c r="F18" s="35" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
       <c r="D19" t="s">
         <v>281</v>
       </c>
       <c r="E19" t="s">
         <v>171</v>
       </c>
-      <c r="F19" s="36" t="s">
+      <c r="F19" s="35" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
       <c r="D20" t="s">
         <v>283</v>
       </c>
       <c r="E20" t="s">
         <v>171</v>
       </c>
-      <c r="F20" s="36" t="s">
+      <c r="F20" s="35" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
       <c r="D21" t="s">
         <v>285</v>
       </c>
       <c r="E21" t="s">
         <v>171</v>
       </c>
-      <c r="F21" s="36" t="s">
+      <c r="F21" s="35" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
       <c r="D22" t="s">
         <v>287</v>
       </c>
       <c r="E22" t="s">
         <v>220</v>
       </c>
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="35" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
       <c r="D23" t="s">
         <v>225</v>
       </c>
       <c r="E23" t="s">
         <v>220</v>
       </c>
-      <c r="F23" s="36" t="s">
+      <c r="F23" s="35" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
       <c r="D24" t="s">
         <v>290</v>
       </c>
       <c r="E24" t="s">
         <v>171</v>
       </c>
-      <c r="F24" s="36" t="s">
+      <c r="F24" s="35" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
       <c r="D25" t="s">
         <v>292</v>
       </c>
       <c r="E25" t="s">
         <v>220</v>
       </c>
-      <c r="F25" s="36" t="s">
+      <c r="F25" s="35" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
       <c r="D26" t="s">
         <v>294</v>
       </c>
       <c r="E26" t="s">
         <v>171</v>
       </c>
-      <c r="F26" s="36" t="s">
+      <c r="F26" s="35" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
       <c r="D27" t="s">
         <v>296</v>
       </c>
       <c r="E27" t="s">
         <v>220</v>
       </c>
-      <c r="F27" s="36" t="s">
+      <c r="F27" s="35" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
       <c r="D28" t="s">
         <v>298</v>
       </c>
       <c r="E28" t="s">
         <v>171</v>
       </c>
-      <c r="F28" s="36" t="s">
+      <c r="F28" s="35" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
       <c r="D29" t="s">
         <v>300</v>
       </c>
       <c r="E29" t="s">
         <v>171</v>
       </c>
-      <c r="F29" s="36" t="s">
+      <c r="F29" s="35" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="30" ht="15.15" spans="2:6">
-      <c r="B30" s="35"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="38" t="s">
+      <c r="B30" s="34"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="37" t="s">
         <v>302</v>
       </c>
-      <c r="E30" s="38" t="s">
+      <c r="E30" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="F30" s="39" t="s">
+      <c r="F30" s="38" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="35"/>
-      <c r="C31" s="32" t="s">
+      <c r="B31" s="34"/>
+      <c r="C31" s="31" t="s">
         <v>304</v>
       </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="34" t="s">
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="33" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
       <c r="D32" t="s">
         <v>306</v>
       </c>
       <c r="E32" t="s">
         <v>220</v>
       </c>
-      <c r="F32" s="36" t="s">
+      <c r="F32" s="35" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
       <c r="D33" t="s">
         <v>225</v>
       </c>
       <c r="E33" t="s">
         <v>220</v>
       </c>
-      <c r="F33" s="36" t="s">
+      <c r="F33" s="35" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="34" ht="15.15" spans="2:6">
-      <c r="B34" s="35"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="38" t="s">
+      <c r="B34" s="34"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="37" t="s">
         <v>308</v>
       </c>
-      <c r="E34" s="38" t="s">
+      <c r="E34" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="F34" s="39" t="s">
+      <c r="F34" s="38" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="35"/>
-      <c r="C35" s="32" t="s">
+      <c r="B35" s="34"/>
+      <c r="C35" s="31" t="s">
         <v>309</v>
       </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="34" t="s">
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="33" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
       <c r="D36" t="s">
         <v>188</v>
       </c>
       <c r="E36" t="s">
         <v>171</v>
       </c>
-      <c r="F36" s="36" t="s">
+      <c r="F36" s="35" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
       <c r="D37" t="s">
         <v>225</v>
       </c>
       <c r="E37" t="s">
         <v>171</v>
       </c>
-      <c r="F37" s="36" t="s">
+      <c r="F37" s="35" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
       <c r="D38" t="s">
         <v>227</v>
       </c>
       <c r="E38" t="s">
         <v>171</v>
       </c>
-      <c r="F38" s="36" t="s">
+      <c r="F38" s="35" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="39" spans="2:6">
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
       <c r="D39" t="s">
         <v>229</v>
       </c>
       <c r="E39" t="s">
         <v>230</v>
       </c>
-      <c r="F39" s="36" t="s">
+      <c r="F39" s="35" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
       <c r="D40" t="s">
         <v>232</v>
       </c>
       <c r="E40" t="s">
         <v>171</v>
       </c>
-      <c r="F40" s="36" t="s">
+      <c r="F40" s="35" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
       <c r="D41" t="s">
         <v>234</v>
       </c>
       <c r="E41" t="s">
         <v>171</v>
       </c>
-      <c r="F41" s="36" t="s">
+      <c r="F41" s="35" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
       <c r="D42" t="s">
         <v>238</v>
       </c>
       <c r="E42" t="s">
         <v>220</v>
       </c>
-      <c r="F42" s="36" t="s">
+      <c r="F42" s="35" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
       <c r="D43" t="s">
         <v>240</v>
       </c>
       <c r="E43" t="s">
         <v>171</v>
       </c>
-      <c r="F43" s="36" t="s">
+      <c r="F43" s="35" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
       <c r="D44" t="s">
         <v>242</v>
       </c>
       <c r="E44" t="s">
         <v>171</v>
       </c>
-      <c r="F44" s="36" t="s">
+      <c r="F44" s="35" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
       <c r="D45" t="s">
         <v>244</v>
       </c>
       <c r="E45" t="s">
         <v>230</v>
       </c>
-      <c r="F45" s="36" t="s">
+      <c r="F45" s="35" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
       <c r="D46" t="s">
         <v>246</v>
       </c>
       <c r="E46" t="s">
         <v>171</v>
       </c>
-      <c r="F46" s="36" t="s">
+      <c r="F46" s="35" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="47" ht="15.15" spans="2:6">
-      <c r="B47" s="35"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="38" t="s">
+      <c r="B47" s="34"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="37" t="s">
         <v>248</v>
       </c>
-      <c r="E47" s="38" t="s">
+      <c r="E47" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="F47" s="39" t="s">
+      <c r="F47" s="38" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="35"/>
-      <c r="C48" s="32" t="s">
+      <c r="B48" s="34"/>
+      <c r="C48" s="31" t="s">
         <v>313</v>
       </c>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="34" t="s">
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="33" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
       <c r="D49" t="s">
         <v>294</v>
       </c>
       <c r="E49" t="s">
         <v>171</v>
       </c>
-      <c r="F49" s="36" t="s">
+      <c r="F49" s="35" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="50" ht="15.15" spans="2:6">
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="38" t="s">
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="37" t="s">
         <v>316</v>
       </c>
-      <c r="E50" s="38" t="s">
+      <c r="E50" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="F50" s="39" t="s">
+      <c r="F50" s="38" t="s">
         <v>317</v>
       </c>
     </row>

--- a/sharkpay接口文档.xlsx
+++ b/sharkpay接口文档.xlsx
@@ -926,6 +926,9 @@
     <t>例子</t>
   </si>
   <si>
+    <t>GET</t>
+  </si>
+  <si>
     <t>Param</t>
   </si>
   <si>
@@ -1014,9 +1017,6 @@
   </si>
   <si>
     <t>关联上级代理</t>
-  </si>
-  <si>
-    <t>GET</t>
   </si>
   <si>
     <t>Authorization</t>
@@ -9896,7 +9896,7 @@
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="3" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -10246,7 +10246,7 @@
     </row>
     <row r="15" spans="4:6">
       <c r="D15" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E15" t="s">
         <v>177</v>
@@ -11478,7 +11478,7 @@
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="3" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -13685,7 +13685,7 @@
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="3" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -13827,7 +13827,7 @@
     </row>
     <row r="4" spans="2:14">
       <c r="B4" s="3" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="8" t="s">
@@ -35306,7 +35306,7 @@
     </row>
     <row r="16" spans="3:6">
       <c r="C16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D16" t="s">
         <v>236</v>
@@ -35323,7 +35323,7 @@
         <v>236</v>
       </c>
       <c r="F17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="3:6">
@@ -35670,7 +35670,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -35700,12 +35700,12 @@
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="3" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -35713,7 +35713,7 @@
         <v>181</v>
       </c>
       <c r="D6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -36025,7 +36025,7 @@
     </row>
     <row r="20" customFormat="1" spans="3:6">
       <c r="C20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D20" t="s">
         <v>236</v>
@@ -36042,7 +36042,7 @@
         <v>236</v>
       </c>
       <c r="F21" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="3:6">
@@ -37613,7 +37613,7 @@
     </row>
     <row r="20" customFormat="1" spans="3:6">
       <c r="C20" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D20" t="s">
         <v>236</v>
@@ -37630,7 +37630,7 @@
         <v>236</v>
       </c>
       <c r="F21" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="3:6">
@@ -50568,7 +50568,7 @@
     </row>
     <row r="16" spans="3:6">
       <c r="C16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D16" t="s">
         <v>236</v>
@@ -50585,7 +50585,7 @@
         <v>236</v>
       </c>
       <c r="F17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="3:6">
@@ -51174,7 +51174,7 @@
     </row>
     <row r="17" spans="3:6">
       <c r="C17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D17" t="s">
         <v>236</v>
@@ -51191,7 +51191,7 @@
         <v>236</v>
       </c>
       <c r="F18" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="3:6">
@@ -53843,13 +53843,13 @@
         <v>177</v>
       </c>
       <c r="D8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F8" t="s">
         <v>178</v>
       </c>
       <c r="G8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -53860,7 +53860,7 @@
         <v>177</v>
       </c>
       <c r="D9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F9" t="s">
         <v>178</v>
@@ -53868,13 +53868,13 @@
     </row>
     <row r="10" spans="2:6">
       <c r="B10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C10" t="s">
         <v>177</v>
       </c>
       <c r="D10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F10" t="s">
         <v>178</v>
@@ -53882,61 +53882,61 @@
     </row>
     <row r="11" spans="2:7">
       <c r="B11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C11" t="s">
         <v>177</v>
       </c>
       <c r="D11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C12" t="s">
         <v>177</v>
       </c>
       <c r="D12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F12" t="s">
         <v>178</v>
       </c>
       <c r="G12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="42" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C13" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="42" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C14" t="s">
         <v>177</v>
       </c>
       <c r="D14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F14" t="s">
         <v>178</v>
@@ -53944,30 +53944,30 @@
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="42" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C15" t="s">
         <v>177</v>
       </c>
       <c r="D15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F15" t="s">
         <v>178</v>
       </c>
       <c r="H15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="42" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C16" t="s">
         <v>177</v>
       </c>
       <c r="D16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F16" t="s">
         <v>178</v>
@@ -53975,13 +53975,13 @@
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="42" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F17" t="s">
         <v>178</v>
@@ -53989,13 +53989,13 @@
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="42" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F18" t="s">
         <v>178</v>
@@ -54003,19 +54003,19 @@
     </row>
     <row r="19" spans="2:8">
       <c r="B19" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C19" t="s">
         <v>177</v>
       </c>
       <c r="D19" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F19" t="s">
         <v>178</v>
       </c>
       <c r="H19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -54266,7 +54266,7 @@
     </row>
     <row r="19" customFormat="1" spans="3:6">
       <c r="C19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D19" t="s">
         <v>236</v>
@@ -54283,7 +54283,7 @@
         <v>236</v>
       </c>
       <c r="F20" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="3:6">
@@ -63524,7 +63524,7 @@
     </row>
     <row r="16" spans="3:6">
       <c r="C16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D16" t="s">
         <v>236</v>
@@ -63541,7 +63541,7 @@
         <v>236</v>
       </c>
       <c r="F17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="3:6">
@@ -64139,7 +64139,7 @@
     </row>
     <row r="17" spans="3:6">
       <c r="C17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D17" t="s">
         <v>236</v>
@@ -64156,7 +64156,7 @@
         <v>236</v>
       </c>
       <c r="F18" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="3:6">
@@ -66959,7 +66959,7 @@
     </row>
     <row r="19" customFormat="1" spans="3:6">
       <c r="C19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D19" t="s">
         <v>236</v>
@@ -66976,7 +66976,7 @@
         <v>236</v>
       </c>
       <c r="F20" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="3:6">
@@ -68424,7 +68424,7 @@
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="3" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -69948,7 +69948,7 @@
     </row>
     <row r="4" customFormat="1" spans="2:2">
       <c r="B4" s="3" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:1">
@@ -70279,7 +70279,7 @@
     </row>
     <row r="4" customFormat="1" spans="2:2">
       <c r="B4" s="3" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:1">
@@ -70586,7 +70586,7 @@
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="3" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -70668,7 +70668,7 @@
     </row>
     <row r="15" spans="3:6">
       <c r="C15" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>237</v>
@@ -70680,10 +70680,10 @@
     </row>
     <row r="16" spans="3:6">
       <c r="C16" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
@@ -70716,10 +70716,10 @@
     </row>
     <row r="19" spans="3:6">
       <c r="C19" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6" t="s">
@@ -70728,10 +70728,10 @@
     </row>
     <row r="20" spans="3:6">
       <c r="C20" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6" t="s">
@@ -70740,10 +70740,10 @@
     </row>
     <row r="21" spans="3:6">
       <c r="C21" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6" t="s">
@@ -70752,10 +70752,10 @@
     </row>
     <row r="22" spans="3:6">
       <c r="C22" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
@@ -71137,7 +71137,7 @@
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="3" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -71502,7 +71502,7 @@
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
       <c r="D36" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E36" t="s">
         <v>177</v>
@@ -72814,7 +72814,7 @@
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="3" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:1">
